--- a/biology/Neurosciences/Gyrus_de_l'insula/Gyrus_de_l'insula.xlsx
+++ b/biology/Neurosciences/Gyrus_de_l'insula/Gyrus_de_l'insula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gyrus_de_l%27insula</t>
+          <t>Gyrus_de_l'insula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les gyrus de l'insula ou gyrus insulaires sont cinq gyrus du lobe de l'insula du cortex cérébral. Ils sont situés dans l'insula, une petite structure corticale située dans la profondeur de la scissure de Sylvius, le sillon latéral, et entièrement recouverte par les lobes frontal, pariétal et temporal.
 Les gyrus de l'insula, numérotés de I à V, se décomposent en :
